--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS1_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>时间</t>
   </si>
@@ -107,14 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,342 +121,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -469,320 +147,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1073,116 +462,117 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -1232,9 +622,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="3">
-        <v>43344</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1304,8 +695,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1374,8 +765,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1446,11 +837,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -1460,23 +846,27 @@
     <mergeCell ref="O1:R2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="I1:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.375" customWidth="1"/>
     <col min="2" max="3" width="42.75" customWidth="1"/>
@@ -1487,7 +877,7 @@
     <col min="17" max="18" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1537,62 +927,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -121,12 +121,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +473,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="C5" sqref="C5:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,7 +626,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <f>_metadata!B1</f>
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
       <c r="B5" t="s">

--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ACS1_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -108,8 +108,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,27 +127,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -149,31 +477,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -464,117 +1081,117 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:R7"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -624,8 +1241,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:18">
+      <c r="A5" s="3">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
@@ -697,8 +1314,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -767,8 +1384,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -839,6 +1456,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -848,27 +1470,23 @@
     <mergeCell ref="O1:R2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="I1:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="49.375" customWidth="1"/>
     <col min="2" max="3" width="42.75" customWidth="1"/>
@@ -879,7 +1497,7 @@
     <col min="17" max="18" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -929,77 +1547,78 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -109,13 +109,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,17 +125,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,20 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,28 +255,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -206,74 +262,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -284,43 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,72 +446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,66 +459,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +469,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,15 +552,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -517,61 +565,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +587,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,140 +596,140 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1095,7 +1089,6 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1242,9 +1235,9 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="3">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="A5" s="3" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1613,12 +1606,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介20181216 - v1\能介\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS1_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -113,11 +108,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,27 +128,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,38 +478,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -475,116 +1082,116 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -634,9 +1241,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="str">
+        <f>IF(_metadata!B4="","",_metadata!B4)</f>
         <v/>
       </c>
       <c r="B5" t="s">
@@ -707,8 +1314,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -777,8 +1384,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -849,6 +1456,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -858,38 +1470,34 @@
     <mergeCell ref="O1:R2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="I1:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="49.36328125" customWidth="1"/>
-    <col min="2" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="6" width="41.6328125" customWidth="1"/>
-    <col min="7" max="10" width="43.90625" customWidth="1"/>
-    <col min="11" max="14" width="42.7265625" customWidth="1"/>
-    <col min="15" max="16" width="49.36328125" customWidth="1"/>
-    <col min="17" max="18" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="49.3666666666667" customWidth="1"/>
+    <col min="2" max="3" width="42.725" customWidth="1"/>
+    <col min="4" max="6" width="41.6333333333333" customWidth="1"/>
+    <col min="7" max="10" width="43.9083333333333" customWidth="1"/>
+    <col min="11" max="14" width="42.725" customWidth="1"/>
+    <col min="15" max="16" width="49.3666666666667" customWidth="1"/>
+    <col min="17" max="18" width="48.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -939,77 +1547,78 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -110,13 +110,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,9 +126,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,8 +146,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,10 +245,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,113 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,25 +278,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,67 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,85 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,45 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,6 +498,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -562,6 +531,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,16 +554,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,142 +587,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1096,6 +1089,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="8.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1243,7 +1237,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)</f>
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
       <c r="B5" t="s">

--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="ACS1_Strt_Stp_Main" sheetId="1" r:id="rId1"/>
+    <sheet name="ACS1StrtStpMain" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReport_day_shift" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -111,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
@@ -125,27 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -154,6 +133,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -163,6 +164,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +199,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,76 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,11 +489,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,7 +515,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,15 +540,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +559,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -110,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
@@ -125,6 +125,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -133,56 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -191,6 +170,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -199,8 +193,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +239,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,29 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,25 +278,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,139 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +469,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,7 +524,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,30 +561,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/excel/finished/能介/一空压站启停次数表.xlsx
+++ b/excel/finished/能介/一空压站启停次数表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="ACS1StrtStpMain" sheetId="1" r:id="rId1"/>
@@ -112,8 +112,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
@@ -125,24 +125,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +180,50 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -170,24 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,17 +256,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,52 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,39 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,17 +496,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,13 +522,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
